--- a/04_Modelling/01_benthic/01_BRUVs/03_BRT_biomass_BRUVS/BRT_Outputs/contrib_mod_best_fixed_Log_biomass_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/03_BRT_biomass_BRUVS/BRT_Outputs/contrib_mod_best_fixed_Log_biomass_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,17 +376,17 @@
         </is>
       </c>
       <c r="B2">
-        <v>57.71561539619783</v>
+        <v>39.06002709910075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B3">
-        <v>10.75824539048188</v>
+        <v>20.30441477347812</v>
       </c>
     </row>
     <row r="4">
@@ -396,37 +396,137 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.05735555675508</v>
+        <v>7.032087714164783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SSTmax</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B5">
-        <v>8.701212397762976</v>
+        <v>6.46195720248071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SuspendedParticulateMatter</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.738617788281282</v>
+        <v>5.349004161532974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SSTmax</t>
         </is>
       </c>
       <c r="B7">
-        <v>6.02895347052096</v>
+        <v>4.880405727640031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SuspendedParticulateMatter</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>4.19499514605787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SSTmean</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>3.503346371828077</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EastwardVelocity</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>2.269504734044452</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ReefMinDist</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>1.990770024124492</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>1.967295204257473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LandMinDist</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>1.244222885259099</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NorthwardVelocity</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1.019272451749192</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SummitAreaKm2</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.4340020502156856</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SummitRugosity</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.2886944540663033</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
